--- a/Lancet Covid-19 Commission Data/December 2020 Statement/Lancet Tables Dec 2020/Final Tables/February 2021 update.xlsx
+++ b/Lancet Covid-19 Commission Data/December 2020 Statement/Lancet Tables Dec 2020/Final Tables/February 2021 update.xlsx
@@ -1,33 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isminiethridge/Dropbox/JDS_Data/Lancet Covid-19 Commission Data/December 2020 Statement/Lancet Tables Dec 2020/Final Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliebartels/Dropbox/JDS_Data/Lancet Covid-19 Commission Data/December 2020 Statement/Lancet Tables Dec 2020/Final Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E61D8F-0BDC-BD4E-B599-681C91F0FFFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C30287-2497-BB4B-BF07-21ACC167A92D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33640" yWindow="3560" windowWidth="27640" windowHeight="16260" xr2:uid="{415C80C2-606A-CC4C-97E2-D9DC3124FE3E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{415C80C2-606A-CC4C-97E2-D9DC3124FE3E}"/>
   </bookViews>
   <sheets>
-    <sheet name="February Table Updates" sheetId="1" r:id="rId1"/>
-    <sheet name="East Asia sub groups" sheetId="3" r:id="rId2"/>
-    <sheet name="Dec Table " sheetId="2" r:id="rId3"/>
+    <sheet name="Final Table" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="February Table Updates (all)" sheetId="1" r:id="rId3"/>
+    <sheet name="East Asia sub groups" sheetId="3" r:id="rId4"/>
+    <sheet name="Dec Table " sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="43">
   <si>
     <t>lancetregion</t>
   </si>
@@ -117,17 +128,58 @@
   </si>
   <si>
     <t># of Days</t>
+  </si>
+  <si>
+    <t>Q2 (2020)</t>
+  </si>
+  <si>
+    <t>Q3 (2020)</t>
+  </si>
+  <si>
+    <t>Q4 (2020)</t>
+  </si>
+  <si>
+    <t>Q1 (2021)</t>
+  </si>
+  <si>
+    <t>April 1 2020 - June 30 2020</t>
+  </si>
+  <si>
+    <t>July 1 2020 - Sept 30 2020</t>
+  </si>
+  <si>
+    <t>Oct 1 2020 – December 31 2020</t>
+  </si>
+  <si>
+    <t>January 1 2020 - Feb 1 2020</t>
+  </si>
+  <si>
+    <t>December 2020 Table</t>
+  </si>
+  <si>
+    <t>Feb 2021 Table</t>
+  </si>
+  <si>
+    <t>pct of total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New cases (pct of World total) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -182,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -322,12 +374,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -340,37 +404,117 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -383,46 +527,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -733,571 +848,2186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B5FAA0-BEE3-D14C-880E-DF78C744E3D9}">
-  <dimension ref="A1:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508914DA-6BB3-6240-9ED7-B69B56A1B33E}">
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A16" sqref="A16:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
+    <col min="4" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="47"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="66"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="66"/>
+      <c r="O1" s="67"/>
+    </row>
+    <row r="2" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="34">
+        <v>2360000000</v>
+      </c>
+      <c r="C3" s="64">
+        <v>0.30412371134020616</v>
+      </c>
+      <c r="D3" s="52">
+        <v>167730</v>
+      </c>
+      <c r="E3" s="64">
+        <f>D3/$D$13</f>
+        <v>1.7428925407462048E-2</v>
+      </c>
+      <c r="F3" s="36">
+        <v>0.78039809999999998</v>
+      </c>
+      <c r="G3" s="34">
+        <v>637621</v>
+      </c>
+      <c r="H3" s="64">
+        <f>G3/G$13</f>
+        <v>2.7044712947598904E-2</v>
+      </c>
+      <c r="I3" s="35">
+        <v>2.9344160000000001</v>
+      </c>
+      <c r="J3" s="52">
+        <v>1035223</v>
+      </c>
+      <c r="K3" s="64">
+        <f>J3/J$13</f>
+        <v>2.1232122404568118E-2</v>
+      </c>
+      <c r="L3" s="36">
+        <v>4.7642329999999999</v>
+      </c>
+      <c r="M3" s="52">
+        <v>702952</v>
+      </c>
+      <c r="N3" s="64">
+        <f>M3/M$13</f>
+        <v>3.5564441932783672E-2</v>
+      </c>
+      <c r="O3" s="36">
+        <v>9.3008480000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="34">
+        <v>1440000000</v>
+      </c>
+      <c r="C4" s="64">
+        <v>0.18556701030927836</v>
+      </c>
+      <c r="D4" s="52">
+        <v>2506</v>
+      </c>
+      <c r="E4" s="64">
+        <f t="shared" ref="E4:E10" si="0">D4/$D$13</f>
+        <v>2.6039997061408154E-4</v>
+      </c>
+      <c r="F4" s="36">
+        <v>1.9132900000000001E-2</v>
+      </c>
+      <c r="G4" s="34">
+        <v>5760</v>
+      </c>
+      <c r="H4" s="64">
+        <f t="shared" ref="H4:H11" si="1">G4/G$13</f>
+        <v>2.4431056470563184E-4</v>
+      </c>
+      <c r="I4" s="35">
+        <v>4.3498700000000001E-2</v>
+      </c>
+      <c r="J4" s="52">
+        <v>5418</v>
+      </c>
+      <c r="K4" s="64">
+        <f t="shared" ref="K4:K11" si="2">J4/J$13</f>
+        <v>1.1112160296665556E-4</v>
+      </c>
+      <c r="L4" s="36">
+        <v>4.0916000000000001E-2</v>
+      </c>
+      <c r="M4" s="52">
+        <v>4233</v>
+      </c>
+      <c r="N4" s="64">
+        <f t="shared" ref="N4:N11" si="3">M4/M$13</f>
+        <v>2.1416011719359684E-4</v>
+      </c>
+      <c r="O4" s="36">
+        <v>9.1905100000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="34">
+        <v>921000000</v>
+      </c>
+      <c r="C5" s="64">
+        <v>0.11868556701030927</v>
+      </c>
+      <c r="D5" s="52">
+        <v>165224</v>
+      </c>
+      <c r="E5" s="64">
+        <f t="shared" si="0"/>
+        <v>1.7168525436847968E-2</v>
+      </c>
+      <c r="F5" s="36">
+        <v>1.972081</v>
+      </c>
+      <c r="G5" s="34">
+        <v>631861</v>
+      </c>
+      <c r="H5" s="64">
+        <f t="shared" si="1"/>
+        <v>2.6800402382893274E-2</v>
+      </c>
+      <c r="I5" s="35">
+        <v>7.4597930000000003</v>
+      </c>
+      <c r="J5" s="52">
+        <v>1029805</v>
+      </c>
+      <c r="K5" s="64">
+        <f t="shared" si="2"/>
+        <v>2.1121000801601463E-2</v>
+      </c>
+      <c r="L5" s="36">
+        <v>12.15795</v>
+      </c>
+      <c r="M5" s="52">
+        <v>698719</v>
+      </c>
+      <c r="N5" s="64">
+        <f t="shared" si="3"/>
+        <v>3.5350281815590079E-2</v>
+      </c>
+      <c r="O5" s="36">
+        <v>23.716229999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="34">
+        <v>747000000</v>
+      </c>
+      <c r="C6" s="64">
+        <v>9.6262886597938149E-2</v>
+      </c>
+      <c r="D6" s="52">
+        <v>1942155</v>
+      </c>
+      <c r="E6" s="64">
+        <f t="shared" si="0"/>
+        <v>0.20181049677892718</v>
+      </c>
+      <c r="F6" s="36">
+        <v>28.574169999999999</v>
+      </c>
+      <c r="G6" s="34">
+        <v>2672364</v>
+      </c>
+      <c r="H6" s="64">
+        <f t="shared" si="1"/>
+        <v>0.11334839547552103</v>
+      </c>
+      <c r="I6" s="35">
+        <v>38.890079999999998</v>
+      </c>
+      <c r="J6" s="52">
+        <v>18700000</v>
+      </c>
+      <c r="K6" s="64">
+        <f t="shared" si="2"/>
+        <v>0.38353155693548524</v>
+      </c>
+      <c r="L6" s="36">
+        <v>272.24220000000003</v>
+      </c>
+      <c r="M6" s="52">
+        <v>6564578</v>
+      </c>
+      <c r="N6" s="64">
+        <f t="shared" si="3"/>
+        <v>0.33212161441212085</v>
+      </c>
+      <c r="O6" s="36">
+        <v>274.65530000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="34">
+        <v>653000000</v>
+      </c>
+      <c r="C7" s="64">
+        <v>8.4149484536082481E-2</v>
+      </c>
+      <c r="D7" s="52">
+        <v>2597051</v>
+      </c>
+      <c r="E7" s="64">
+        <f t="shared" si="0"/>
+        <v>0.26986113490952557</v>
+      </c>
+      <c r="F7" s="36">
+        <v>43.711030000000001</v>
+      </c>
+      <c r="G7" s="34">
+        <v>6796820</v>
+      </c>
+      <c r="H7" s="64">
+        <f t="shared" si="1"/>
+        <v>0.2882873146532175</v>
+      </c>
+      <c r="I7" s="35">
+        <v>113.154</v>
+      </c>
+      <c r="J7" s="52">
+        <v>6272436</v>
+      </c>
+      <c r="K7" s="64">
+        <f t="shared" si="2"/>
+        <v>0.12864583662343249</v>
+      </c>
+      <c r="L7" s="36">
+        <v>104.42400000000001</v>
+      </c>
+      <c r="M7" s="52">
+        <v>3398535</v>
+      </c>
+      <c r="N7" s="64">
+        <f t="shared" si="3"/>
+        <v>0.1719420396613609</v>
+      </c>
+      <c r="O7" s="36">
+        <v>162.66489999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="34">
+        <v>525000000</v>
+      </c>
+      <c r="C8" s="64">
+        <v>6.7654639175257728E-2</v>
+      </c>
+      <c r="D8" s="52">
+        <v>851826</v>
+      </c>
+      <c r="E8" s="64">
+        <f t="shared" si="0"/>
+        <v>8.8513753139788751E-2</v>
+      </c>
+      <c r="F8" s="36">
+        <v>17.841439999999999</v>
+      </c>
+      <c r="G8" s="34">
+        <v>1417634</v>
+      </c>
+      <c r="H8" s="64">
+        <f t="shared" si="1"/>
+        <v>6.0128986646858285E-2</v>
+      </c>
+      <c r="I8" s="35">
+        <v>29.369509999999998</v>
+      </c>
+      <c r="J8" s="52">
+        <v>3369083</v>
+      </c>
+      <c r="K8" s="64">
+        <f t="shared" si="2"/>
+        <v>6.9098911681009373E-2</v>
+      </c>
+      <c r="L8" s="36">
+        <v>69.798220000000001</v>
+      </c>
+      <c r="M8" s="52">
+        <v>1057684</v>
+      </c>
+      <c r="N8" s="64">
+        <f t="shared" si="3"/>
+        <v>5.3511393667326317E-2</v>
+      </c>
+      <c r="O8" s="36">
+        <v>62.997950000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="34">
+        <v>369000000</v>
+      </c>
+      <c r="C9" s="64">
+        <v>4.7551546391752575E-2</v>
+      </c>
+      <c r="D9" s="52">
+        <v>2549516</v>
+      </c>
+      <c r="E9" s="64">
+        <f t="shared" si="0"/>
+        <v>0.26492174440547911</v>
+      </c>
+      <c r="F9" s="36">
+        <v>75.943690000000004</v>
+      </c>
+      <c r="G9" s="34">
+        <v>4646801</v>
+      </c>
+      <c r="H9" s="64">
+        <f t="shared" si="1"/>
+        <v>0.19709419728900951</v>
+      </c>
+      <c r="I9" s="35">
+        <v>136.91200000000001</v>
+      </c>
+      <c r="J9" s="52">
+        <v>13300000</v>
+      </c>
+      <c r="K9" s="64">
+        <f t="shared" si="2"/>
+        <v>0.27277912872951626</v>
+      </c>
+      <c r="L9" s="36">
+        <v>390.52010000000001</v>
+      </c>
+      <c r="M9" s="52">
+        <v>6480905</v>
+      </c>
+      <c r="N9" s="64">
+        <f t="shared" si="3"/>
+        <v>0.32788834734716932</v>
+      </c>
+      <c r="O9" s="36">
+        <v>548.98569999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="34">
+        <v>2010000000</v>
+      </c>
+      <c r="C10" s="64">
+        <v>0.25902061855670105</v>
+      </c>
+      <c r="D10" s="52">
+        <v>1216123</v>
+      </c>
+      <c r="E10" s="64">
+        <f t="shared" si="0"/>
+        <v>0.12636807400762518</v>
+      </c>
+      <c r="F10" s="36">
+        <v>6.6531289999999998</v>
+      </c>
+      <c r="G10" s="34">
+        <v>6567119</v>
+      </c>
+      <c r="H10" s="64">
+        <f t="shared" si="1"/>
+        <v>0.27854454016997993</v>
+      </c>
+      <c r="I10" s="35">
+        <v>35.536679999999997</v>
+      </c>
+      <c r="J10" s="52">
+        <v>5398947</v>
+      </c>
+      <c r="K10" s="64">
+        <f t="shared" si="2"/>
+        <v>0.11073083148246883</v>
+      </c>
+      <c r="L10" s="36">
+        <v>29.215350000000001</v>
+      </c>
+      <c r="M10" s="52">
+        <v>899811</v>
+      </c>
+      <c r="N10" s="64">
+        <f t="shared" si="3"/>
+        <v>4.552412691048608E-2</v>
+      </c>
+      <c r="O10" s="36">
+        <v>13.998810000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="34">
+        <v>1090000000</v>
+      </c>
+      <c r="C11" s="64">
+        <v>0.1404639175257732</v>
+      </c>
+      <c r="D11" s="52">
+        <v>299256</v>
+      </c>
+      <c r="E11" s="64">
+        <f>D11/$D$13</f>
+        <v>3.1095871351192173E-2</v>
+      </c>
+      <c r="F11" s="36">
+        <v>3.0081899999999999</v>
+      </c>
+      <c r="G11" s="34">
+        <v>838190</v>
+      </c>
+      <c r="H11" s="64">
+        <f t="shared" si="1"/>
+        <v>3.5551852817814852E-2</v>
+      </c>
+      <c r="I11" s="35">
+        <v>8.3340949999999996</v>
+      </c>
+      <c r="J11" s="52">
+        <v>681707</v>
+      </c>
+      <c r="K11" s="64">
+        <f t="shared" si="2"/>
+        <v>1.3981612143519723E-2</v>
+      </c>
+      <c r="L11" s="36">
+        <v>6.7781900000000004</v>
+      </c>
+      <c r="M11" s="52">
+        <v>661120</v>
+      </c>
+      <c r="N11" s="64">
+        <f t="shared" si="3"/>
+        <v>3.3448036068752837E-2</v>
+      </c>
+      <c r="O11" s="36">
+        <v>18.898790000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="36"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="49">
+        <v>7760000000</v>
+      </c>
+      <c r="C13" s="49"/>
+      <c r="D13" s="53">
+        <f t="shared" ref="D13:M13" si="4">SUM(D3,D6:D11)</f>
+        <v>9623657</v>
+      </c>
+      <c r="E13" s="49"/>
+      <c r="F13" s="55">
+        <f>((D13/B13)/91)*1000000</f>
+        <v>13.628153676220688</v>
+      </c>
+      <c r="G13" s="49">
+        <f t="shared" si="4"/>
+        <v>23576549</v>
+      </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50">
+        <f>((G13/B13)/92)*1000000</f>
+        <v>33.024076927386822</v>
+      </c>
+      <c r="J13" s="53">
+        <f t="shared" si="4"/>
+        <v>48757396</v>
+      </c>
+      <c r="K13" s="49"/>
+      <c r="L13" s="51">
+        <f>((J13/B13)/92)*1000000</f>
+        <v>68.295321604661581</v>
+      </c>
+      <c r="M13" s="53">
+        <f t="shared" si="4"/>
+        <v>19765585</v>
+      </c>
+      <c r="N13" s="49"/>
+      <c r="O13" s="51">
+        <f>((M13/B13)/32)*1000000</f>
+        <v>79.597233408505161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3070BB3D-D182-6D4D-BB88-C4B7CB16CD80}">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2360000000</v>
+      </c>
+      <c r="C3">
+        <v>0.30412371134020616</v>
+      </c>
+      <c r="D3">
+        <v>167730</v>
+      </c>
+      <c r="E3">
+        <v>1.7428925407462048E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.78039809999999998</v>
+      </c>
+      <c r="G3">
+        <v>637621</v>
+      </c>
+      <c r="H3">
+        <v>2.7044712947598904E-2</v>
+      </c>
+      <c r="I3">
+        <v>2.9344160000000001</v>
+      </c>
+      <c r="J3">
+        <v>1035223</v>
+      </c>
+      <c r="K3">
+        <v>2.1232122404568118E-2</v>
+      </c>
+      <c r="L3">
+        <v>4.7642329999999999</v>
+      </c>
+      <c r="M3">
+        <v>702952</v>
+      </c>
+      <c r="N3">
+        <v>3.5564441932783672E-2</v>
+      </c>
+      <c r="O3">
+        <v>9.3008480000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1440000000</v>
+      </c>
+      <c r="C4">
+        <v>0.18556701030927836</v>
+      </c>
+      <c r="D4">
+        <v>2506</v>
+      </c>
+      <c r="E4">
+        <v>2.6039997061408154E-4</v>
+      </c>
+      <c r="F4">
+        <v>1.9132900000000001E-2</v>
+      </c>
+      <c r="G4">
+        <v>5760</v>
+      </c>
+      <c r="H4">
+        <v>2.4431056470563184E-4</v>
+      </c>
+      <c r="I4">
+        <v>4.3498700000000001E-2</v>
+      </c>
+      <c r="J4">
+        <v>5418</v>
+      </c>
+      <c r="K4">
+        <v>1.1112160296665556E-4</v>
+      </c>
+      <c r="L4">
+        <v>4.0916000000000001E-2</v>
+      </c>
+      <c r="M4">
+        <v>4233</v>
+      </c>
+      <c r="N4">
+        <v>2.1416011719359684E-4</v>
+      </c>
+      <c r="O4">
+        <v>9.1905100000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>921000000</v>
+      </c>
+      <c r="C5">
+        <v>0.11868556701030927</v>
+      </c>
+      <c r="D5">
+        <v>165224</v>
+      </c>
+      <c r="E5">
+        <v>1.7168525436847968E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.972081</v>
+      </c>
+      <c r="G5">
+        <v>631861</v>
+      </c>
+      <c r="H5">
+        <v>2.6800402382893274E-2</v>
+      </c>
+      <c r="I5">
+        <v>7.4597930000000003</v>
+      </c>
+      <c r="J5">
+        <v>1029805</v>
+      </c>
+      <c r="K5">
+        <v>2.1121000801601463E-2</v>
+      </c>
+      <c r="L5">
+        <v>12.15795</v>
+      </c>
+      <c r="M5">
+        <v>698719</v>
+      </c>
+      <c r="N5">
+        <v>3.5350281815590079E-2</v>
+      </c>
+      <c r="O5">
+        <v>23.716229999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>747000000</v>
+      </c>
+      <c r="C6">
+        <v>9.6262886597938149E-2</v>
+      </c>
+      <c r="D6">
+        <v>1942155</v>
+      </c>
+      <c r="E6">
+        <v>0.20181049677892718</v>
+      </c>
+      <c r="F6">
+        <v>28.574169999999999</v>
+      </c>
+      <c r="G6">
+        <v>2672364</v>
+      </c>
+      <c r="H6">
+        <v>0.11334839547552103</v>
+      </c>
+      <c r="I6">
+        <v>38.890079999999998</v>
+      </c>
+      <c r="J6">
+        <v>18700000</v>
+      </c>
+      <c r="K6">
+        <v>0.38353155693548524</v>
+      </c>
+      <c r="L6">
+        <v>272.24220000000003</v>
+      </c>
+      <c r="M6">
+        <v>6564578</v>
+      </c>
+      <c r="N6">
+        <v>0.33212161441212085</v>
+      </c>
+      <c r="O6">
+        <v>274.65530000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>653000000</v>
+      </c>
+      <c r="C7">
+        <v>8.4149484536082481E-2</v>
+      </c>
+      <c r="D7">
+        <v>2597051</v>
+      </c>
+      <c r="E7">
+        <v>0.26986113490952557</v>
+      </c>
+      <c r="F7">
+        <v>43.711030000000001</v>
+      </c>
+      <c r="G7">
+        <v>6796820</v>
+      </c>
+      <c r="H7">
+        <v>0.2882873146532175</v>
+      </c>
+      <c r="I7">
+        <v>113.154</v>
+      </c>
+      <c r="J7">
+        <v>6272436</v>
+      </c>
+      <c r="K7">
+        <v>0.12864583662343249</v>
+      </c>
+      <c r="L7">
+        <v>104.42400000000001</v>
+      </c>
+      <c r="M7">
+        <v>3398535</v>
+      </c>
+      <c r="N7">
+        <v>0.1719420396613609</v>
+      </c>
+      <c r="O7">
+        <v>162.66489999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>525000000</v>
+      </c>
+      <c r="C8">
+        <v>6.7654639175257728E-2</v>
+      </c>
+      <c r="D8">
+        <v>851826</v>
+      </c>
+      <c r="E8">
+        <v>8.8513753139788751E-2</v>
+      </c>
+      <c r="F8">
+        <v>17.841439999999999</v>
+      </c>
+      <c r="G8">
+        <v>1417634</v>
+      </c>
+      <c r="H8">
+        <v>6.0128986646858285E-2</v>
+      </c>
+      <c r="I8">
+        <v>29.369509999999998</v>
+      </c>
+      <c r="J8">
+        <v>3369083</v>
+      </c>
+      <c r="K8">
+        <v>6.9098911681009373E-2</v>
+      </c>
+      <c r="L8">
+        <v>69.798220000000001</v>
+      </c>
+      <c r="M8">
+        <v>1057684</v>
+      </c>
+      <c r="N8">
+        <v>5.3511393667326317E-2</v>
+      </c>
+      <c r="O8">
+        <v>62.997950000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>369000000</v>
+      </c>
+      <c r="C9">
+        <v>4.7551546391752575E-2</v>
+      </c>
+      <c r="D9">
+        <v>2549516</v>
+      </c>
+      <c r="E9">
+        <v>0.26492174440547911</v>
+      </c>
+      <c r="F9">
+        <v>75.943690000000004</v>
+      </c>
+      <c r="G9">
+        <v>4646801</v>
+      </c>
+      <c r="H9">
+        <v>0.19709419728900951</v>
+      </c>
+      <c r="I9">
+        <v>136.91200000000001</v>
+      </c>
+      <c r="J9">
+        <v>13300000</v>
+      </c>
+      <c r="K9">
+        <v>0.27277912872951626</v>
+      </c>
+      <c r="L9">
+        <v>390.52010000000001</v>
+      </c>
+      <c r="M9">
+        <v>6480905</v>
+      </c>
+      <c r="N9">
+        <v>0.32788834734716932</v>
+      </c>
+      <c r="O9">
+        <v>548.98569999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>2010000000</v>
+      </c>
+      <c r="C10">
+        <v>0.25902061855670105</v>
+      </c>
+      <c r="D10">
+        <v>1216123</v>
+      </c>
+      <c r="E10">
+        <v>0.12636807400762518</v>
+      </c>
+      <c r="F10">
+        <v>6.6531289999999998</v>
+      </c>
+      <c r="G10">
+        <v>6567119</v>
+      </c>
+      <c r="H10">
+        <v>0.27854454016997993</v>
+      </c>
+      <c r="I10">
+        <v>35.536679999999997</v>
+      </c>
+      <c r="J10">
+        <v>5398947</v>
+      </c>
+      <c r="K10">
+        <v>0.11073083148246883</v>
+      </c>
+      <c r="L10">
+        <v>29.215350000000001</v>
+      </c>
+      <c r="M10">
+        <v>899811</v>
+      </c>
+      <c r="N10">
+        <v>4.552412691048608E-2</v>
+      </c>
+      <c r="O10">
+        <v>13.998810000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>1090000000</v>
+      </c>
+      <c r="C11">
+        <v>0.1404639175257732</v>
+      </c>
+      <c r="D11">
+        <v>299256</v>
+      </c>
+      <c r="E11">
+        <v>3.1095871351192173E-2</v>
+      </c>
+      <c r="F11">
+        <v>3.0081899999999999</v>
+      </c>
+      <c r="G11">
+        <v>838190</v>
+      </c>
+      <c r="H11">
+        <v>3.5551852817814852E-2</v>
+      </c>
+      <c r="I11">
+        <v>8.3340949999999996</v>
+      </c>
+      <c r="J11">
+        <v>681707</v>
+      </c>
+      <c r="K11">
+        <v>1.3981612143519723E-2</v>
+      </c>
+      <c r="L11">
+        <v>6.7781900000000004</v>
+      </c>
+      <c r="M11">
+        <v>661120</v>
+      </c>
+      <c r="N11">
+        <v>3.3448036068752837E-2</v>
+      </c>
+      <c r="O11">
+        <v>18.898790000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>7760000000</v>
+      </c>
+      <c r="D13">
+        <v>9623657</v>
+      </c>
+      <c r="F13">
+        <v>13.628153676220688</v>
+      </c>
+      <c r="G13">
+        <v>23576549</v>
+      </c>
+      <c r="I13">
+        <v>33.024076927386822</v>
+      </c>
+      <c r="J13">
+        <v>48757396</v>
+      </c>
+      <c r="L13">
+        <v>68.295321604661581</v>
+      </c>
+      <c r="M13">
+        <v>19765585</v>
+      </c>
+      <c r="O13">
+        <v>79.597233408505161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B5FAA0-BEE3-D14C-880E-DF78C744E3D9}">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="28" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+    </row>
+    <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30" t="s">
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="28" t="s">
+      <c r="F2" s="67"/>
+      <c r="G2" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30" t="s">
+      <c r="H2" s="73"/>
+      <c r="I2" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="30" t="s">
+      <c r="J2" s="73"/>
+      <c r="K2" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="31"/>
-    </row>
-    <row r="2" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="L2" s="67"/>
+    </row>
+    <row r="3" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L3" s="25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B4" s="34">
         <v>2360000000</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C4" s="34">
         <v>417846</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D4" s="35">
         <v>1.9441139999999999</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E4" s="34">
         <v>167730</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F4" s="35">
         <v>0.78039809999999998</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G4" s="34">
         <v>637621</v>
       </c>
-      <c r="H3" s="43">
+      <c r="H4" s="35">
         <v>2.9344160000000001</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I4" s="34">
         <v>1035223</v>
       </c>
-      <c r="J3" s="43">
+      <c r="J4" s="35">
         <v>4.7642329999999999</v>
       </c>
-      <c r="K3" s="43">
+      <c r="K4" s="34">
         <v>702952</v>
       </c>
-      <c r="L3" s="44">
+      <c r="L4" s="36">
         <v>9.3008480000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B5" s="34">
         <v>1440000000</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C5" s="34">
         <v>88124</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D5" s="35">
         <v>0.67281290000000005</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E5" s="34">
         <v>2506</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F5" s="35">
         <v>1.9132900000000001E-2</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G5" s="34">
         <v>5760</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H5" s="35">
         <v>4.3498700000000001E-2</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I5" s="34">
         <v>5418</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J5" s="35">
         <v>4.0916000000000001E-2</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K5" s="34">
         <v>4233</v>
       </c>
-      <c r="L4" s="44">
+      <c r="L5" s="36">
         <v>9.1905100000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B6" s="34">
         <v>921000000</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C6" s="34">
         <v>329722</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D6" s="35">
         <v>3.9354969999999998</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E6" s="34">
         <v>165224</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F6" s="35">
         <v>1.972081</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G6" s="34">
         <v>631861</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H6" s="35">
         <v>7.4597930000000003</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I6" s="34">
         <v>1029805</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J6" s="35">
         <v>12.15795</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K6" s="34">
         <v>698719</v>
       </c>
-      <c r="L5" s="44">
+      <c r="L6" s="36">
         <v>23.716229999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B7" s="34">
         <v>747000000</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C7" s="34">
         <v>3624338</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D7" s="35">
         <v>53.32347</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E7" s="34">
         <v>1942155</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F7" s="35">
         <v>28.574169999999999</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G7" s="34">
         <v>2672364</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H7" s="35">
         <v>38.890079999999998</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I7" s="34">
         <v>18700000</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J7" s="35">
         <v>272.24220000000003</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K7" s="34">
         <v>6564578</v>
       </c>
-      <c r="L6" s="44">
+      <c r="L7" s="36">
         <v>274.65530000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B8" s="34">
         <v>653000000</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C8" s="34">
         <v>2725619</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D8" s="35">
         <v>45.874969999999998</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E8" s="34">
         <v>2597051</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F8" s="35">
         <v>43.711030000000001</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G8" s="34">
         <v>6796820</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H8" s="35">
         <v>113.154</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I8" s="34">
         <v>6272436</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J8" s="35">
         <v>104.42400000000001</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K8" s="34">
         <v>3398535</v>
       </c>
-      <c r="L7" s="44">
+      <c r="L8" s="36">
         <v>162.66489999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B9" s="34">
         <v>525000000</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C9" s="34">
         <v>1122061</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D9" s="35">
         <v>23.5015</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E9" s="34">
         <v>851826</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F9" s="35">
         <v>17.841439999999999</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G9" s="34">
         <v>1417634</v>
       </c>
-      <c r="H8" s="43">
+      <c r="H9" s="35">
         <v>29.369509999999998</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I9" s="34">
         <v>3369083</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J9" s="35">
         <v>69.798220000000001</v>
       </c>
-      <c r="K8" s="43">
+      <c r="K9" s="34">
         <v>1057684</v>
       </c>
-      <c r="L8" s="44">
+      <c r="L9" s="36">
         <v>62.997950000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B10" s="34">
         <v>369000000</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C10" s="34">
         <v>1072096</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D10" s="35">
         <v>31.93505</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E10" s="34">
         <v>2549516</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F10" s="35">
         <v>75.943690000000004</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G10" s="34">
         <v>4646801</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H10" s="35">
         <v>136.91200000000001</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I10" s="34">
         <v>13300000</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J10" s="35">
         <v>390.52010000000001</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K10" s="34">
         <v>6480905</v>
       </c>
-      <c r="L9" s="44">
+      <c r="L10" s="36">
         <v>548.98569999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B11" s="34">
         <v>2010000000</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C11" s="34">
         <v>1442914</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D11" s="35">
         <v>7.8938499999999996</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E11" s="34">
         <v>1216123</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F11" s="35">
         <v>6.6531289999999998</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G11" s="34">
         <v>6567119</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H11" s="35">
         <v>35.536679999999997</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I11" s="34">
         <v>5398947</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J11" s="35">
         <v>29.215350000000001</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K11" s="34">
         <v>899811</v>
       </c>
-      <c r="L10" s="44">
+      <c r="L11" s="36">
         <v>13.998810000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B12" s="34">
         <v>1090000000</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C12" s="34">
         <v>425581</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D12" s="35">
         <v>4.2780379999999996</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E12" s="34">
         <v>299256</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F12" s="35">
         <v>3.0081899999999999</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G12" s="34">
         <v>838190</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H12" s="35">
         <v>8.3340949999999996</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I12" s="34">
         <v>681707</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J12" s="35">
         <v>6.7781900000000004</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K12" s="34">
         <v>661120</v>
       </c>
-      <c r="L11" s="44">
+      <c r="L12" s="36">
         <v>18.898790000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="44"/>
-    </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="36"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B14" s="38">
         <v>7760000000</v>
       </c>
-      <c r="C13" s="47">
-        <f>SUM(C3,C6:C11)</f>
+      <c r="C14" s="38">
+        <f>SUM(C4,C7:C12)</f>
         <v>10830455</v>
       </c>
-      <c r="D13" s="47">
-        <f t="shared" ref="D13:L13" si="0">SUM(D3,D6:D11)</f>
+      <c r="D14" s="39">
+        <f t="shared" ref="D14:L14" si="0">SUM(D4,D7:D12)</f>
         <v>168.75099199999997</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E14" s="38">
         <f t="shared" si="0"/>
         <v>9623657</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F14" s="39">
         <f t="shared" si="0"/>
         <v>176.51204710000002</v>
       </c>
-      <c r="G13" s="47">
+      <c r="G14" s="38">
         <f t="shared" si="0"/>
         <v>23576549</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H14" s="39">
         <f t="shared" si="0"/>
         <v>365.13078099999996</v>
       </c>
-      <c r="I13" s="47">
+      <c r="I14" s="38">
         <f t="shared" si="0"/>
         <v>48757396</v>
       </c>
-      <c r="J13" s="47">
+      <c r="J14" s="39">
         <f t="shared" si="0"/>
         <v>877.74229300000002</v>
       </c>
-      <c r="K13" s="47">
+      <c r="K14" s="38">
         <f t="shared" si="0"/>
         <v>19765585</v>
       </c>
-      <c r="L13" s="48">
+      <c r="L14" s="40">
         <f t="shared" si="0"/>
         <v>1091.5022979999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+    <row r="16" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B16" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="35">
+    <row r="17" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27">
         <v>1</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B17" s="28">
         <v>91</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="35">
+      <c r="C17" s="57"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="58">
+        <f>I4/92</f>
+        <v>11252.423913043478</v>
+      </c>
+      <c r="K17" s="57"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="27">
         <v>2</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B18" s="28">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="35">
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="59">
+        <f>(I7+I10)/I14</f>
+        <v>0.6563106856650015</v>
+      </c>
+      <c r="K18" s="57"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="27">
         <v>3</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B19" s="28">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="27">
         <v>4</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B20" s="28">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="37">
+      <c r="J20" s="57"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="29">
         <v>5</v>
       </c>
-      <c r="B20" s="38">
+      <c r="B21" s="30">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="1"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="70"/>
+      <c r="E24" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="72"/>
+      <c r="G24" s="69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="70"/>
+      <c r="I24" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="70"/>
+    </row>
+    <row r="25" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="12">
+        <v>2360000000</v>
+      </c>
+      <c r="C26" s="12">
+        <v>195458</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="E26" s="12">
+        <v>167726</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="G26" s="12">
+        <v>637620</v>
+      </c>
+      <c r="H26" s="13">
+        <v>2.9</v>
+      </c>
+      <c r="I26" s="12">
+        <v>822832</v>
+      </c>
+      <c r="J26" s="14">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="15">
+        <v>1439323774</v>
+      </c>
+      <c r="C27" s="12">
+        <v>89173</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="E27" s="12">
+        <v>2506</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12">
+        <v>5760</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
+        <v>4308</v>
+      </c>
+      <c r="J27" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="15">
+        <v>920676226</v>
+      </c>
+      <c r="C28" s="12">
+        <v>106285</v>
+      </c>
+      <c r="D28" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="E28" s="12">
+        <v>165220</v>
+      </c>
+      <c r="F28" s="13">
+        <v>2</v>
+      </c>
+      <c r="G28" s="12">
+        <v>631860</v>
+      </c>
+      <c r="H28" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="I28" s="12">
+        <v>818524</v>
+      </c>
+      <c r="J28" s="14">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="12">
+        <v>747000000</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1598973</v>
+      </c>
+      <c r="D29" s="13">
+        <v>23.5</v>
+      </c>
+      <c r="E29" s="12">
+        <v>1942241</v>
+      </c>
+      <c r="F29" s="13">
+        <v>28.6</v>
+      </c>
+      <c r="G29" s="12">
+        <v>2671431</v>
+      </c>
+      <c r="H29" s="13">
+        <v>38.9</v>
+      </c>
+      <c r="I29" s="12">
+        <v>15800000</v>
+      </c>
+      <c r="J29" s="14">
+        <v>267.89999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="12">
+        <v>653000000</v>
+      </c>
+      <c r="C30" s="12">
+        <v>894756</v>
+      </c>
+      <c r="D30" s="13">
+        <v>15.1</v>
+      </c>
+      <c r="E30" s="12">
+        <v>2590649</v>
+      </c>
+      <c r="F30" s="13">
+        <v>43.6</v>
+      </c>
+      <c r="G30" s="12">
+        <v>6795207</v>
+      </c>
+      <c r="H30" s="13">
+        <v>113.1</v>
+      </c>
+      <c r="I30" s="12">
+        <v>5131043</v>
+      </c>
+      <c r="J30" s="14">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="12">
+        <v>525000000</v>
+      </c>
+      <c r="C31" s="12">
+        <v>303220</v>
+      </c>
+      <c r="D31" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="E31" s="12">
+        <v>851574</v>
+      </c>
+      <c r="F31" s="13">
+        <v>17.8</v>
+      </c>
+      <c r="G31" s="12">
+        <v>1417743</v>
+      </c>
+      <c r="H31" s="13">
+        <v>29.4</v>
+      </c>
+      <c r="I31" s="12">
+        <v>3633946</v>
+      </c>
+      <c r="J31" s="14">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="12">
+        <v>369000000</v>
+      </c>
+      <c r="C32" s="12">
+        <v>937752</v>
+      </c>
+      <c r="D32" s="13">
+        <v>27.9</v>
+      </c>
+      <c r="E32" s="12">
+        <v>2544166</v>
+      </c>
+      <c r="F32" s="13">
+        <v>75.8</v>
+      </c>
+      <c r="G32" s="12">
+        <v>4640735</v>
+      </c>
+      <c r="H32" s="13">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="I32" s="12">
+        <v>10400000</v>
+      </c>
+      <c r="J32" s="14">
+        <v>356.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="12">
+        <v>2010000000</v>
+      </c>
+      <c r="C33" s="12">
+        <v>848727</v>
+      </c>
+      <c r="D33" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E33" s="12">
+        <v>1214731</v>
+      </c>
+      <c r="F33" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="G33" s="12">
+        <v>6567119</v>
+      </c>
+      <c r="H33" s="13">
+        <v>35.5</v>
+      </c>
+      <c r="I33" s="12">
+        <v>4950528</v>
+      </c>
+      <c r="J33" s="14">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="12">
+        <v>1090000000</v>
+      </c>
+      <c r="C34" s="12">
+        <v>117571</v>
+      </c>
+      <c r="D34" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="E34" s="12">
+        <v>295453</v>
+      </c>
+      <c r="F34" s="13">
+        <v>3</v>
+      </c>
+      <c r="G34" s="12">
+        <v>838190</v>
+      </c>
+      <c r="H34" s="13">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I34" s="12">
+        <v>457829</v>
+      </c>
+      <c r="J34" s="14">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="17">
+        <v>7754000000</v>
+      </c>
+      <c r="C35" s="18">
+        <v>4896457</v>
+      </c>
+      <c r="D35" s="19">
+        <v>6.9</v>
+      </c>
+      <c r="E35" s="17">
+        <v>9774266</v>
+      </c>
+      <c r="F35" s="20">
+        <v>13.9</v>
+      </c>
+      <c r="G35" s="18">
+        <v>23568045</v>
+      </c>
+      <c r="H35" s="20">
+        <v>33</v>
+      </c>
+      <c r="I35" s="17">
+        <v>41196178</v>
+      </c>
+      <c r="J35" s="19">
+        <v>67.3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+  <mergeCells count="11">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D4B99A-0E33-5648-9A64-02E2BFDF952C}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1499,12 +3229,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADB8489-8DFB-4D45-AF26-71ECD2CC21D9}">
   <dimension ref="A3:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1518,22 +3248,22 @@
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="23" t="s">
+      <c r="F3" s="72"/>
+      <c r="G3" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25" t="s">
+      <c r="H3" s="70"/>
+      <c r="I3" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="24"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -1911,7 +3641,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
@@ -1925,7 +3655,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
@@ -1957,5 +3687,6 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>